--- a/assets/template_5_fundacoes_3_combinacoes.xlsx
+++ b/assets/template_5_fundacoes_3_combinacoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-projetos\fundaIA\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-projetos\fundaIA\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD3F93-519C-4760-A409-156A62D9259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDA69A-1483-4553-AB32-2E1A0DE42B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,9 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,24 +531,22 @@
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -579,10 +574,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -594,10 +589,10 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -617,40 +612,40 @@
       <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>2.9</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>25.254999999999999</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>485.9</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>-0.3</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>511.6</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>-32.4</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>-0.4</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>511.6</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <v>-32.4</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="11">
         <v>-0.4</v>
       </c>
     </row>
@@ -667,40 +662,40 @@
       <c r="D3" s="9">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>7.9850000000000003</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>25.105</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>885.8</v>
       </c>
       <c r="I3" s="9">
         <v>-1</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>912.1</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>-65.400000000000006</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>0.1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>915.9</v>
       </c>
       <c r="O3" s="9">
         <v>-40</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <v>0.1</v>
       </c>
     </row>
@@ -717,40 +712,40 @@
       <c r="D4" s="9">
         <v>30</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>13.875</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>25.515000000000001</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1314</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>-3.9</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>20.399999999999999</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>1696.4</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>-214.1</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>0.8</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>1698.9</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>-214.6</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>0.7</v>
       </c>
     </row>
@@ -767,40 +762,40 @@
       <c r="D5" s="9">
         <v>35</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>24.85</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>25.105</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>855.5</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>-3.7</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>891.9</v>
       </c>
       <c r="L5" s="9">
         <v>-60</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>0.6</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>908.5</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>-36.9</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>0.4</v>
       </c>
     </row>
@@ -817,19 +812,19 @@
       <c r="D6" s="9">
         <v>45</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>24.85</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>25.254999999999999</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>478.6</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>-3.1</v>
       </c>
       <c r="J6" s="9">
@@ -838,23 +833,28 @@
       <c r="K6" s="9">
         <v>496</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>-27.6</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>0.7</v>
       </c>
       <c r="N6" s="9">
         <v>508</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>-27.6</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{CBEB0505-6FCF-42F1-8A14-CFA3CC24C4F0}">
+      <formula1>"argila,silte,pedregulho,areia"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>